--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -350,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -373,6 +373,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
